--- a/data/case1/5/cost_2.xlsx
+++ b/data/case1/5/cost_2.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>160.41894957831369</v>
+        <v>160.40248066456118</v>
       </c>
       <c r="B1" s="0">
-        <v>5.8747056052553814</v>
+        <v>5.9651769540861599</v>
       </c>
       <c r="C1" s="0">
-        <v>1.2440313111545989</v>
+        <v>1.064715264187867</v>
       </c>
     </row>
   </sheetData>
